--- a/mbs-perturbation/greedy/elm/smote/chatty_elm_rbf_linf_smote_results.xlsx
+++ b/mbs-perturbation/greedy/elm/smote/chatty_elm_rbf_linf_smote_results.xlsx
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.4976415094339623</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0.4995283018867925</v>
       </c>
     </row>
   </sheetData>
